--- a/Year_Identifier/src/test/java/SheetFolder/URLs.xlsx
+++ b/Year_Identifier/src/test/java/SheetFolder/URLs.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="1">
   <si>
     <t>https://thriveagency.com/abbotsford-ca-seo-company/</t>
   </si>
@@ -964,13 +964,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B4"/>
+      <selection activeCell="A7" sqref="A7:A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="59.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
@@ -1009,13 +1009,163 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
         <v>0</v>
       </c>
     </row>
